--- a/doc/版本计划表.xlsx
+++ b/doc/版本计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24720" windowHeight="12075"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>版本号</t>
   </si>
@@ -25,9 +25,15 @@
     <t>计划开始时间</t>
   </si>
   <si>
+    <t>实际开始时间</t>
+  </si>
+  <si>
     <t>计划结束时间</t>
   </si>
   <si>
+    <t>实际结束时间</t>
+  </si>
+  <si>
     <t>详情</t>
   </si>
   <si>
@@ -53,6 +59,15 @@
   </si>
   <si>
     <t>延期10天</t>
+  </si>
+  <si>
+    <t>v0.3.1</t>
+  </si>
+  <si>
+    <t>日志模块</t>
+  </si>
+  <si>
+    <t>1.完成日志模块 2.json解析器 3.ini解析器</t>
   </si>
 </sst>
 </file>
@@ -60,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -81,9 +96,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,127 +232,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -227,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,15 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -456,21 +462,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +498,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -533,87 +533,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -622,74 +637,77 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +716,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1018,127 +1039,169 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" customWidth="true"/>
     <col min="2" max="2" width="16.4133333333333" customWidth="true"/>
-    <col min="3" max="3" width="15.2533333333333" style="1" customWidth="true"/>
-    <col min="4" max="4" width="14.1666666666667" style="1" customWidth="true"/>
-    <col min="5" max="5" width="34.08" customWidth="true"/>
-    <col min="6" max="6" width="15.6" customWidth="true"/>
+    <col min="3" max="4" width="15.2533333333333" style="1" customWidth="true"/>
+    <col min="5" max="6" width="14.1666666666667" style="1" customWidth="true"/>
+    <col min="7" max="7" width="34.08" style="2" customWidth="true"/>
+    <col min="8" max="8" width="15.6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
         <v>43862</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
+        <v>43862</v>
+      </c>
+      <c r="E2" s="4">
         <v>43952</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <v>43952</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
         <v>44191</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
+        <v>44191</v>
+      </c>
+      <c r="E3" s="4">
         <v>44211</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
+      <c r="F3" s="4">
+        <v>44221</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44248</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44248</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44276</v>
+      </c>
       <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
